--- a/app/src/main/asset/Data1.xlsx
+++ b/app/src/main/asset/Data1.xlsx
@@ -5,32 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit Tsvieli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naama\Dropbox\hackathon\app\src\main\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6C42B4-89D9-45AA-BB97-E963E8216A6E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{992428A8-02A4-47F2-8985-DF88B4A9BAE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E5C1ACF3-1E8F-4235-A2E0-FDB47D3FF16A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{E5C1ACF3-1E8F-4235-A2E0-FDB47D3FF16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +64,9 @@
   </si>
   <si>
     <t>expertInfo</t>
+  </si>
+  <si>
+    <t>creationYear</t>
   </si>
 </sst>
 </file>
@@ -124,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,28 +418,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C02D15-E4B6-4FC2-8FB6-A74BFB78D68E}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,6 +478,9 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
